--- a/release/train/ca_data/300360248.pdf.xlsx
+++ b/release/train/ca_data/300360248.pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NLP Research\kepco\data2\open_bid_電気\.cache\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaowh/Downloads/bidding_document_dataset/release/train/ca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14236B6-AE7D-4043-B984-8544805CD032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8499EA-CB88-B04D-A59E-4AFF0E207D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,9 +496,6 @@
     <t>調達年度;調達開始日;調達終了日</t>
   </si>
   <si>
-    <t>平成３１年;平成３１年４月１日から平成３２年３月３１日</t>
-  </si>
-  <si>
     <t>＊質問箇所 所属／担当者;＊入札書送付先</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>平成３１年２月２２日（金）１４時００分</t>
+  </si>
+  <si>
+    <t>平成３１年;平成３１年４月１日;平成３２年３月３１日</t>
   </si>
 </sst>
 </file>
@@ -1038,22 +1038,22 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="83.88671875" customWidth="1"/>
+    <col min="2" max="2" width="83.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1410,10 +1410,10 @@
         <v>157</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -2333,13 +2333,13 @@
         <v>7</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -2359,13 +2359,13 @@
         <v>7</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2385,13 +2385,13 @@
         <v>7</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2</v>
       </c>
@@ -2411,13 +2411,13 @@
         <v>7</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -2437,13 +2437,13 @@
         <v>7</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -2501,13 +2501,13 @@
         <v>7</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -2527,13 +2527,13 @@
         <v>7</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -2553,13 +2553,13 @@
         <v>7</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -2579,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -2705,13 +2705,13 @@
         <v>7</v>
       </c>
       <c r="G79" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" t="s">
         <v>164</v>
       </c>
-      <c r="H79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -2831,13 +2831,13 @@
         <v>7</v>
       </c>
       <c r="G85" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H85" t="s">
         <v>166</v>
       </c>
-      <c r="H85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -2997,13 +2997,13 @@
         <v>7</v>
       </c>
       <c r="G93" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H93" t="s">
         <v>171</v>
       </c>
-      <c r="H93" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -3023,13 +3023,13 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
+        <v>172</v>
+      </c>
+      <c r="H94" t="s">
         <v>173</v>
       </c>
-      <c r="H94" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -3149,13 +3149,13 @@
         <v>7</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H100" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -3175,13 +3175,13 @@
         <v>7</v>
       </c>
       <c r="G101" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H101" t="s">
         <v>169</v>
       </c>
-      <c r="H101" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>3</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>3</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>3</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>3</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>3</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>4</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>4</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>4</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>4</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>4</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>4</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>4</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>4</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>4</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>4</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>4</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>4</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>4</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>4</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>4</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>4</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>4</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>4</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>4</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>4</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>4</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>4</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>4</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>4</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>4</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>4</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>4</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>4</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>4</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>4</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>4</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>4</v>
       </c>
